--- a/MSDO/Assignment2/ISRU reviews.xlsx
+++ b/MSDO/Assignment2/ISRU reviews.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Cost Attriubute</t>
   </si>
@@ -108,6 +108,15 @@
       </rPr>
       <t>. Vol. 7114. 2011.</t>
     </r>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t>Med</t>
+  </si>
+  <si>
+    <t>High</t>
   </si>
 </sst>
 </file>
@@ -227,8 +236,8 @@
           <c:h val="0.67588327500729073"/>
         </c:manualLayout>
       </c:layout>
-      <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -236,25 +245,24 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:xVal>
-            <c:numRef>
+          <c:cat>
+            <c:strRef>
               <c:f>Sheet1!$B$7:$B$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
+              <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.1</c:v>
+                  <c:v>Low</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5</c:v>
+                  <c:v>Med</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10</c:v>
+                  <c:v>High</c:v>
                 </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
             <c:numRef>
               <c:f>Sheet1!$C$7:$C$9</c:f>
               <c:numCache>
@@ -271,7 +279,7 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:yVal>
+          </c:val>
           <c:smooth val="1"/>
         </c:ser>
         <c:dLbls>
@@ -282,11 +290,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="378954576"/>
-        <c:axId val="378954968"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="378954576"/>
+        <c:smooth val="0"/>
+        <c:axId val="361520696"/>
+        <c:axId val="312981744"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="361520696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -320,12 +329,15 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="378954968"/>
+        <c:crossAx val="312981744"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="1"/>
+      </c:catAx>
       <c:valAx>
-        <c:axId val="378954968"/>
+        <c:axId val="312981744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -354,9 +366,9 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="378954576"/>
+        <c:crossAx val="361520696"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
+        <c:crossBetween val="between"/>
         <c:majorUnit val="0.2"/>
       </c:valAx>
     </c:plotArea>
@@ -772,8 +784,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B5:E84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -801,8 +813,8 @@
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B7">
-        <v>0.1</v>
+      <c r="B7" t="s">
+        <v>8</v>
       </c>
       <c r="C7">
         <f>(E7-$E$7)</f>
@@ -817,15 +829,15 @@
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B8">
-        <v>5</v>
+      <c r="B8" t="s">
+        <v>9</v>
       </c>
       <c r="C8">
         <v>0.3</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B9">
+      <c r="B9" t="s">
         <v>10</v>
       </c>
       <c r="C9">
